--- a/fiche_note0.xlsx
+++ b/fiche_note0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asnumeric\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ec17e1be56f3947/Documents/fakeBackend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA863EDB-1D9B-4B14-89F8-AA9416993B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{DA863EDB-1D9B-4B14-89F8-AA9416993B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E607111-4D97-4983-BB9F-020C463AFF8A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DACA3C69-3898-402E-A9AA-BA1746140698}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="52">
   <si>
     <t>id</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>ZOUZOU  INES CAMELLA</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -570,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE0673E-DFBD-449F-8BFA-2426A5E17387}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -618,6 +621,12 @@
       <c r="E2">
         <v>12</v>
       </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -635,6 +644,12 @@
       <c r="E3">
         <v>12</v>
       </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -652,6 +667,12 @@
       <c r="E4">
         <v>12</v>
       </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -669,6 +690,12 @@
       <c r="E5">
         <v>12</v>
       </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -686,6 +713,12 @@
       <c r="E6">
         <v>12</v>
       </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -703,6 +736,12 @@
       <c r="E7">
         <v>12</v>
       </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -720,6 +759,12 @@
       <c r="E8">
         <v>12</v>
       </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -737,6 +782,12 @@
       <c r="E9">
         <v>12</v>
       </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -753,6 +804,12 @@
       </c>
       <c r="E10">
         <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -771,6 +828,12 @@
       <c r="E11">
         <v>12</v>
       </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -788,6 +851,12 @@
       <c r="E12">
         <v>12</v>
       </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -804,6 +873,12 @@
       </c>
       <c r="E13">
         <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -822,6 +897,12 @@
       <c r="E14">
         <v>12</v>
       </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -839,6 +920,12 @@
       <c r="E15">
         <v>12</v>
       </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -856,8 +943,14 @@
       <c r="E16">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -873,8 +966,14 @@
       <c r="E17">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -890,8 +989,14 @@
       <c r="E18">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -907,8 +1012,14 @@
       <c r="E19">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -924,8 +1035,14 @@
       <c r="E20">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -941,8 +1058,14 @@
       <c r="E21">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -958,8 +1081,14 @@
       <c r="E22">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -975,8 +1104,14 @@
       <c r="E23">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -992,8 +1127,14 @@
       <c r="E24">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1009,8 +1150,14 @@
       <c r="E25">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1026,8 +1173,14 @@
       <c r="E26">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1043,8 +1196,14 @@
       <c r="E27">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1060,8 +1219,14 @@
       <c r="E28">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1077,8 +1242,14 @@
       <c r="E29">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1094,8 +1265,14 @@
       <c r="E30">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1111,8 +1288,14 @@
       <c r="E31">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1128,8 +1311,14 @@
       <c r="E32">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1145,8 +1334,14 @@
       <c r="E33">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1162,8 +1357,14 @@
       <c r="E34">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1179,8 +1380,14 @@
       <c r="E35">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1196,8 +1403,14 @@
       <c r="E36">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F36" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1213,8 +1426,14 @@
       <c r="E37">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1230,8 +1449,14 @@
       <c r="E38">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F38" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1247,8 +1472,14 @@
       <c r="E39">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F39" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1264,8 +1495,14 @@
       <c r="E40">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1281,8 +1518,14 @@
       <c r="E41">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F41" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1298,8 +1541,14 @@
       <c r="E42">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1314,6 +1563,12 @@
       </c>
       <c r="E43">
         <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/fiche_note0.xlsx
+++ b/fiche_note0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ec17e1be56f3947/Documents/fakeBackend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{DA863EDB-1D9B-4B14-89F8-AA9416993B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E607111-4D97-4983-BB9F-020C463AFF8A}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{DA863EDB-1D9B-4B14-89F8-AA9416993B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5839984-A22F-41C0-8981-90380B24F6DD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DACA3C69-3898-402E-A9AA-BA1746140698}"/>
   </bookViews>
@@ -573,11 +573,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE0673E-DFBD-449F-8BFA-2426A5E17387}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="40.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
